--- a/sma.xlsx
+++ b/sma.xlsx
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:L252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B18" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
